--- a/google_news_scraped_data.xlsx
+++ b/google_news_scraped_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HDFC Bank CEO flags funding risk post merger, says net interest margins to be hit</t>
+          <t>HDFC Bank chief Jagdishan flags funding risk in first post-merger AGM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:59  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Merger to boost fund flow to affordable housing, farm, MSMEs: HDFC Bank Chairman</t>
+          <t>HDFC Banks CEO raises concerns about funding risk post merger; anticipates impact on net interesnt margins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20:15  11-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Merger to boost fund flows to affordable housing, says HDFC Bank chairman Atanu Chakraborty</t>
+          <t>Funding remains biggest risk to merger, Says HDFC Bank MD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:41  11-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Home loan biz will benefit from low cost of funds: HDFC Bank chairman at AGM</t>
+          <t>Merger to boost fund flow to affordable housing, farm, MSMEs: HDFC Bank Chairman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>The Indian Express</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:20  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCDRC Holds HDFC Bank Liable For Deficiency In Service</t>
+          <t>Post merger, HDFC Bank can offer higher credit growth opportunities to the nation, says chairman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Live Law - Indian Legal News</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10:15  10-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
+          <t>HDFC Bank NIM to moderate in Q2: MD Sashidhar Jagdishan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MintGenie</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:07  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RIL, Infosys, ICICI Bank, HDFC Bank, TCS shares to see outflows on drop in MSCI weightages</t>
+          <t>HDFC Bank To Invest 7–8% Net Revenue On Tech Spends</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03:15  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maruti Suzuki brings HDFC Bank ‘Xpress Car Loans’ feature to its Smart Finance platform</t>
+          <t>HDFC Bank eyes need-based product sales for new customers, post merger with HDFC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ETAuto</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:04  10-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stock markets decline for second day on losses in in HDFC Bank and ICICI Bank, weak global trends</t>
+          <t>Merger to boost fund flows to affordable housing, says HDFC Bank chairman Atanu Chakraborty</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Telegraph India</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:03  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MSCI Global Standard Index rejig: Adds Ashok Leyland, Astral, Cummins, HDFC AMC, IDFC First Bank, PFC, REC and Supreme Ind</t>
+          <t>HDFC Nifty Smallcap 250 ETF - NAV, Performance, Portfolio, Ratings</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02:44  11-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hdfc Bank Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
+          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EquityPandit</t>
+          <t>MintGenie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:40  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HDFC Ergo to utilise claims database to estimate costs</t>
+          <t>NCDRC Holds HDFC Bank Liable For Deficiency In Service</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IndiaTimes</t>
+          <t>Live Law - Indian Legal News</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23:31  08-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Post merger, HDFC Bank can offer higher credit growth opportunities to the nation, says chairman</t>
+          <t>HDFC Bank Share Price Live Updates: HDFC Bank Sees a 0.91% Decrease in Current Price, EMA7 at Rs 1637.12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15:59  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HDFC Bank eyes need-based product sales for new customers, post merger with HDFC</t>
+          <t>Hdfc Bank share price Today Live Updates : Hdfc Bank closed today at ₹1619.05, down -1.05% from yesterday's ₹1636.3 | Mint</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>03:19  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HDFC Bank Share Price Live Updates: HDFC Bank Sees a 0.91% Decrease in Current Price, EMA7 at Rs 1637.12</t>
+          <t>Hdfc Bank Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Economic Times</t>
+          <t>EquityPandit</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:30  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hdfc Bank share price Today Live Updates : Hdfc Bank closed today at ₹1619.05, down -1.05% from yesterday's ₹1636.3 | Mint</t>
+          <t>RIL, Infosys, ICICI Bank, HDFC Bank, TCS shares to see outflows on drop in MSCI weightages</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13:06  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02:41  08-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:43  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nifty may hit 20,700 by Diwali 2023, says ICICI Direct; HDFC Bank, Tata Motors, Reliance among top picks | Mint</t>
+          <t>HDFC Bank hikes lending rates: Loan EMIs to go up. Check latest MCLR rates here | Mint</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:42  11-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MC Interview: Inflation for July-September will cross RBI's projection, says HDFC economist Sakshi Gupta</t>
+          <t>Nifty may hit 20,700 by Diwali 2023, says ICICI Direct; HDFC Bank, Tata Motors, Reliance among top picks | Mint</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08:43  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sensex, Nifty Fall As RIL, ICICI Bank, HDFC Bank Drag: Midday Market Update</t>
+          <t>HDFC Bank picks up 1 lakh sq ft in Blackstone's Mumbai Towers on a 5-yr lease</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>06:57  11-Aug-23</t>
+          <t>06-08-23</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HDFC Bank hikes lending rates: Loan EMIs to go up. Check latest MCLR rates here | Mint</t>
+          <t>MC Interview: Inflation for July-September will cross RBI's projection, says HDFC economist Sakshi Gupta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>03:25  08-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HDFC Bank net banking will be down on this day; here are alternatives</t>
+          <t>Sensex, Nifty Fall As RIL, ICICI Bank, HDFC Bank Drag: Midday Market Update</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>05:25  05-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HDFC Bank picks up 1 lakh sq ft in Blackstone's Mumbai Towers on a 5-yr lease</t>
+          <t>Buy ITD Cementation; target of Rs 230 : HDFC Securities</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19:14  06-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:44  08-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HDFC Bank profit jumps 30% on lower provisions | Mint</t>
+          <t>HDFC Bank, Tata Elxsi, nine other companies to declare Q1 results ...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>07:00  18-Jul-23</t>
+          <t>17-07-23</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HDFC Bank's Jagdishan Highest Paid Bank CEO In FY23 With Rs 10.55 Cr Pay</t>
+          <t>HDFC merger: tax implications for shareholders | Mint</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>07:40  07-Aug-23</t>
+          <t>16-07-23</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HDFC twins merger impact: Five changes that will take place after HDFC's exit from bourses | Mint</t>
+          <t>HDFC Bank's Jagdishan Highest Paid Bank CEO In FY23 With Rs 10.55 Cr Pay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Outlook India</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HDFC merger: tax implications for shareholders | Mint</t>
+          <t>HDFC Bank expects 17-18% credit growth this year | Mint</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07:00  16-Jul-23</t>
+          <t>23-07-23</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IRDAI allows insurers’ holdings in erstwhile HDFC’s bonds to be classified as is till maturity</t>
+          <t>Irdai Permits Insurers To Hold Investments In HDFC In ‘Housing And Infrastructure’ Category</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Outlook India</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16:23  04-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reduce Balkrishna Industries; target of Rs 2148 : HDFC Securities</t>
+          <t>HDFC Bank CEO Jagdishan's remuneration soars by 62% in FY23; Raises concerns over attrition | Mint</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:30  10-Aug-23</t>
+          <t>20-07-23</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HDFC Bank expects 17-18% credit growth this year | Mint</t>
+          <t>HDFC Bank home loan biz to benefit from low cost of funds</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>msnNOW</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>07:00  23-Jul-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Irdai Permits Insurers To Hold Investments In HDFC In ‘Housing And Infrastructure’ Category</t>
+          <t>Stocks to Watch: RIL, Godrej Consumer, Paytm, Tata Chemicals, HDFC Bank | Mint</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13:33  07-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Stocks to Watch: RIL, Godrej Consumer, Paytm, Tata Chemicals, HDFC Bank | Mint</t>
+          <t>Why shadow banks have a place despite HDFC, in 5 charts | Mint</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02:05  08-Aug-23</t>
+          <t>18-07-23</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Why shadow banks have a place despite HDFC, in 5 charts | Mint</t>
+          <t>India insurance regulator allows exemptions for holdings in merged ...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Reuters India</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>07:00  18-Jul-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reduce Emami; target of Rs 400 : HDFC Securities</t>
+          <t>Reduce Balkrishna Industries; target of Rs 2148 : HDFC Securities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11:30  10-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HCL Tech, HDFC Bank among 10 Nifty50 stocks with golden crossover pattern</t>
+          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11:44  04-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SBI, HDFC Bank FDs: How to close fixed deposit online</t>
+          <t>Buy HDFC Bank at current levels if you have a one-year plus time horizon: Sudip Bandyopadhyay</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>08:03  08-Aug-23</t>
+          <t>22-07-23</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HDFC Bank CEO Jagdishan's remuneration soars by 62% in FY23; Raises concerns over attrition | Mint</t>
+          <t>HDFC Infinia reclaims top spot as Axis devalues Magnus credit card | Mint</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07:00  20-Jul-23</t>
+          <t>24-07-23</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Buy HDFC Bank at current levels if you have a one-year plus time horizon: Sudip Bandyopadhyay</t>
+          <t>Merger to enable HDFC Bank to take big exposure in infra projects: CEO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>The Indian Express</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>07:00  22-Jul-23</t>
+          <t>20-07-23</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HDFC Infinia reclaims top spot as Axis devalues Magnus credit card | Mint</t>
+          <t>HDFC Mutual Fund launches new fund offer (NFO). Details here | Mint</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>07:00  24-Jul-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reduce The Ramco Cements; target of Rs 830 : HDFC Securities</t>
+          <t>Reduce Emami; target of Rs 400 : HDFC Securities</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11:31  10-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HDFC Mutual Fund launches new fund offer (NFO). Details here | Mint</t>
+          <t>JPMorgan 'overweight' on HDFC Bank after HDFC twins merger; here's why | Mint</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>07:00  01-Aug-23</t>
+          <t>13-07-23</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Traders Diary: Buy, sell or hold strategy on HDFC AMC, DLF, HCL Tech, Manappuram, Samvardhana Motherson, ov...</t>
+          <t>HDFC Bank stock may outperform Nifty Bank, IndusInd Bank shares may do well</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>03:13  11-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Merger to enable HDFC Bank to take big exposure in infra projects: CEO</t>
+          <t>Reduce The Ramco Cements; target of Rs 830 : HDFC Securities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>07:00  20-Jul-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>F&amp;O Strategy: Bear spread on Bank Nifty, suggests HDFC Securities</t>
+          <t>Hdfc Bank share price Today Live Updates : Hdfc Bank closed today at ₹1640.9, down -1.25% from yesterday's ₹1661.6 | Mint</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>01:42  11-Aug-23</t>
+          <t>02-08-23</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HDFC Bank stock may outperform Nifty Bank, IndusInd Bank shares may do well</t>
+          <t>HDFC AMC delivers strong Q1FY24 performance: Robust revenue growth and 52% increase in profit after tax | Mint</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>05:24  07-Aug-23</t>
+          <t>24-07-23</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
+          <t>HDFC Bank onboards over 1 lakh customers, 1.7 lakh merchants on CBDC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>The Indian Express</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>06:11  08-Aug-23</t>
+          <t>13-07-23</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HDFC Bank Launches ‘Purani Gaadi, Nayi Shuruaat’ Initiative</t>
+          <t>Aim to double every four years: HDFC Bank MD after merger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TheLiveNagpur</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12:36  10-Aug-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Technical breakout: HDFC Bank, Persistent Systems among 9 stocks crossing 100-day SMA</t>
+          <t>Traders Diary: Buy, sell or hold strategy on HDFC AMC, DLF, HCL Tech, Manappuram, Samvardhana Motherson, ov...</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:51  07-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HDFC AMC delivers strong Q1FY24 performance: Robust revenue growth and 52% increase in profit after tax | Mint</t>
+          <t>HDFC Bank Launches ‘Purani Gaadi, Nayi Shuruaat’ Initiative</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>TheLiveNagpur</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>07:00  24-Jul-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Swiggy HDFC Bank card launched: Benefits, how to apply and more</t>
+          <t>F&amp;O Strategy: Bear spread on Bank Nifty, suggests HDFC Securities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Times of India</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>07:00  26-Jul-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aim to double every four years: HDFC Bank MD after merger</t>
+          <t>HDFC Bank’s initiative</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Tribune India</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>02:33  01-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Well played HDFC, the bond market will miss you</t>
+          <t>Technical breakout: HDFC Bank, Persistent Systems among 9 stocks crossing 100-day SMA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>07:00  23-Jul-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HDFC Bank onboards over 1 lakh customers, 1.7 lakh merchants on CBDC</t>
+          <t>Stocks To Watch On 8 August: Godrej Consumer, Tata Chemicals, HDFC Bank, Others In News</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>Outlook India</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Stocks To Watch On 8 August: Godrej Consumer, Tata Chemicals, HDFC Bank, Others In News</t>
+          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>03:10  08-Aug-23</t>
+          <t>25-07-23</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HDFC Bank's weight increase in FTSE, PB Fintech Q1 &amp; hospital stocks | Market Minutes</t>
+          <t>Egerton Capital UK LLP Takes $156.50 Million Position in HDFC ...</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>MarketBeat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>02:48  08-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CCI clears proposed acquisition of HDFC Credila Financial Services</t>
+          <t>HDFC Bank's weight increase in FTSE, PB Fintech Q1 &amp; hospital stocks | Market Minutes</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Deccan Herald</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>00:23  09-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
+          <t>Q1 Results Preview: HDFC Bank likely to report 26% jump in Q1 net profit driven by strong loan growth</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>07:00  25-Jul-23</t>
+          <t>17-07-23</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Buy State Bank of India; target of Rs 750 : HDFC Securities</t>
+          <t>CCI clears proposed acquisition of HDFC Credila Financial Services</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Deccan Herald</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>06:26  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Q1 Results Preview: HDFC Bank likely to report 26% jump in Q1 net profit driven by strong loan growth</t>
+          <t>Stocks to Watch: HDFC Bank, JSW Energy, Bandhan Bank, Lupin, Suzlon | Mint</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>07:00  17-Jul-23</t>
+          <t>17-07-23</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Reduce Orient Electric; target of Rs 230 : HDFC Securities</t>
+          <t>Markets gain after 3 days of losses, HDFC Bank, RIL account for half gains</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>06:20  08-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -1827,17 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Stocks to Watch: HDFC Bank, JSW Energy, Bandhan Bank, Lupin, Suzlon | Mint</t>
+          <t>Reduce Orient Electric; target of Rs 230 : HDFC Securities</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>07:00  17-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Markets gain after 3 days of losses, HDFC Bank, RIL account for half gains</t>
+          <t>Buy State Bank of India; target of Rs 750 : HDFC Securities</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12:35  04-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Did you know — HCLTech and HDFC Bank are related parties, here’s how</t>
+          <t>Buy HDFC Bank; target of Rs 1964: Geojit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>07:00  19-Jul-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reduce Aditya Birla Fashion and Retail; target of Rs 190 : HDFC Securities</t>
+          <t>HDFC Bank, Tata Power among 10 stocks with RSI trending up</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>06:27  09-Aug-23</t>
+          <t>18-07-23</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
+          <t>Income tax: Taxation of shares and fractional shares received on the merger | Mint</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>05:22  08-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Buy HDFC Bank; target of Rs 1964: Geojit</t>
+          <t>Reduce Aditya Birla Fashion and Retail; target of Rs 190 : HDFC Securities</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>07:00  26-Jul-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HDFC ERGO unveils 'here' app to redefine consumer experience</t>
+          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>06:34  08-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mondrian Investment Partners LTD Increases Stake in HDFC Bank ...</t>
+          <t>TCS reclaims title of 2nd most valued firm by mcap; HDFC Bank takes 3rd place</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MarketBeat</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20:37  11-Aug-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -2003,17 +2003,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TCS reclaims title of 2nd most valued firm by mcap; HDFC Bank takes 3rd place</t>
+          <t>HDFC ERGO unveils 'here' app to redefine consumer experience</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>07:00  31-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Buy Cummins; target of Rs 2100 : HDFC Securities</t>
+          <t>Well played HDFC, the bond market will miss you</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>06:21  08-Aug-23</t>
+          <t>23-07-23</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>06:26  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>06:27  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Stocks in news: Vedanta, HDFC Bank, SpiceJet, Patanjali Foods and more</t>
+          <t>HDFC Bank Asked To Pay Rs35,000 for Creating 2 FDs Instead of ...</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneylife</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HDFC Bank Asked To Pay Rs35,000 for Creating 2 FDs Instead of ...</t>
+          <t>Meet Sashidhar Jagdishan, the CEO of HDFC Bank who met Tim Cook and is about to launch Apple card in India, know about his journey &amp; net worth</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moneylife</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>25-07-23</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NRO savings account interest rates: SBI vs HDFC Bank vs ICICI Bank vs Yes Bank</t>
+          <t>Amazon Sale 2023: Get Rs 4,000 Instant Discount From HDFC Bank Cards On These TVs</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>India.com</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>07:00  01-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -2157,17 +2157,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Meet Sashidhar Jagdishan, the CEO of HDFC Bank who met Tim Cook and is about to launch Apple card in India, know about his journey &amp; net worth</t>
+          <t>HDFC Bank Q1 Net Profit seen up 24.3% YoY to Rs. 11,427.2 cr: Nirmal Bang</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>07:00  25-Jul-23</t>
+          <t>14-07-23</t>
         </is>
       </c>
     </row>
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Breakout Stocks: How Ratnamani Metals, Firstsource Solutions and HDFC Bank are looking on charts for Tuesd</t>
+          <t>How does the Swiggy HDFC credit card compare with other cashback cards?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>07:00  17-Jul-23</t>
+          <t>27-07-23</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Q1 Results: Net profit rises 15% to ₹415 crore, net income premium up 17% | Mint</t>
+          <t>Buy Cummins; target of Rs 2100 : HDFC Securities</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>'Rs 3,500 basic salary': Former HDFC Chairman Deepak Parekh's offer letter from 1978 goes viral after his retirement</t>
+          <t>HDFC Life Insurance Q1 Results: Net profit rises 15% to ₹415 crore, net income premium up 17% | Mint</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Buy NOCIL; target of Rs 267: HDFC Securities</t>
+          <t>Analyst recommends long positions in LTIMindtree, Berger Paints and HDFC Bank</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>CNBCTV18</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>05:38  04-Aug-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bank Stocks: HDFC Bank and More Among Top Brokerage Calls</t>
+          <t>Buy GAIL (India); target of Rs 137: HDFC Securities</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>07:00  19-Jul-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Poonawalla group appoints Keki Mistry as strategic advisor for fin services</t>
+          <t>Mcap of seven of top-10 most valued firms erode by Rs 1 lakh cr ...</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>07:37  07-Aug-23</t>
+          <t>06-08-23</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Buy GAIL (India); target of Rs 137: HDFC Securities</t>
+          <t>HDFC Bank HDFC merger: What this twins merger mean for Indian ...</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>05:39  04-Aug-23</t>
+          <t>01-07-23</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mcap of seven of top-10 most valued firms erode by Rs 1 lakh cr ...</t>
+          <t>How HDFC Bank HDFC merger will impact equity mutual funds — explained | Mint</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>05:57  06-Aug-23</t>
+          <t>03-07-23</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HDFC Bank HDFC merger: What this twins merger mean for Indian ...</t>
+          <t>HDFC and HDFC Bank merger likely on 1 July | Mint</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>07:00  01-Jul-23</t>
+          <t>28-06-23</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>How HDFC Bank HDFC merger will impact equity mutual funds — explained | Mint</t>
+          <t>HDFC twins: How much funds outflow will HDFC Bank-HDFC merged entity see after MSCI plan | Mint</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>07:00  03-Jul-23</t>
+          <t>06-05-23</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HDFC and HDFC Bank merger likely on 1 July | Mint</t>
+          <t>HDFC Bank to replace HDFC on MSCI global standard index from July 13 | Mint</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>07:00  28-Jun-23</t>
+          <t>07-07-23</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HDFC twins: How much funds outflow will HDFC Bank-HDFC merged entity see after MSCI plan | Mint</t>
+          <t>HDFC Bank share price underperforms Sensex post-merger; what should you do? | Mint</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>07:00  06-May-23</t>
+          <t>06-07-23</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HDFC Bank to replace HDFC on MSCI global standard index from July 13 | Mint</t>
+          <t>LTIMindtree to replace HDFC on Nifty 50 benchmark with effect from 13 July after HDFC Bank takeover | Mint</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>07:00  07-Jul-23</t>
+          <t>04-07-23</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HDFC Bank share price underperforms Sensex post-merger; what should you do? | Mint</t>
+          <t>HDFC Bank shares halt 5-day winning run, slip 3% post Q1 updates</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>07:00  06-Jul-23</t>
+          <t>05-07-23</t>
         </is>
       </c>
     </row>
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LTIMindtree to replace HDFC on Nifty 50 benchmark with effect from 13 July after HDFC Bank takeover | Mint</t>
+          <t>HDFC Bank to sell 2% stake in NSDL IPO; lender to announce Q1 results on July 17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>07:00  04-Jul-23</t>
+          <t>09-07-23</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HDFC Bank shares halt 5-day winning run, slip 3% post Q1 updates</t>
+          <t>HDFC-HDFC Bank merger to close soon, record date awaited</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>07:00  05-Jul-23</t>
+          <t>13-06-23</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HDFC Bank to sell 2% stake in NSDL IPO; lender to announce Q1 results on July 17</t>
+          <t>HDFC Bank: How the banking behemoth is revolutionising work culture</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>07:00  09-Jul-23</t>
+          <t>17-04-23</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HDFC Bank: How the banking behemoth is revolutionising work culture</t>
+          <t>'It is time to hang my boots': HDFC chairman Deepak Parekh a day ahead of likely merger with HDFC Bank</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>07:00  17-Apr-23</t>
+          <t>30-06-23</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HDFC Bank’s $173 billion merger with its parent creates a ‘lucrative’ arbitrage trade in India</t>
+          <t>HDFC Bank stares at NIM, cost concerns after decent Q4 show | Mint</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>07:00  27-Jun-23</t>
+          <t>17-04-23</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>'It is time to hang my boots': HDFC chairman Deepak Parekh a day ahead of likely merger with HDFC Bank</t>
+          <t>HDFC warrants to list under HDFC Bank | Mint</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>07:00  30-Jun-23</t>
+          <t>22-06-23</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>07:00  12-Jul-23</t>
+          <t>12-07-23</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HDFC Bank-HDFC Merger: RBI issues clarification on HDFC Bank's commercial liabilities</t>
+          <t>RBI allows SBI Funds to buy up to 9.99% stake in HDFC Bank | Mint</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>07:00  17-Jun-23</t>
+          <t>17-05-23</t>
         </is>
       </c>
     </row>
@@ -2663,29 +2663,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Valued more than Morgan Stanley, but HDFC Bank has a score to settle with ICICI Bank</t>
+          <t>HDFC, HDFC Bank share prices turn ex-dividend today; how much investors may get | Mint</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>07:00  04-Jul-23</t>
+          <t>16-05-23</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HDFC</t>
+          <t>SBI</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HDFC Bank stares at NIM, cost concerns after decent Q4 show | Mint</t>
+          <t>SBI tops Reliance to become India's most profitable company; check top 10 profitable firms in June quarter | Mint</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>07:00  17-Apr-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>08:13  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SBI is India's most profitable company, Reliance Industries second | Check list</t>
+          <t>SBI Recruitment 2023 Notification Released: Check Post, Salary, Age, Qualification and How to Apply</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hindustan Times</t>
+          <t>StudyCafe</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>19:32  10-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SBI replaces Reliance Industries to become Indias most profitable company</t>
+          <t>RBI’s policy communication nuanced, says SBI’s Khara</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>08:35  09-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mukesh Ambanis Reliance Industries Toppled By SBI To Become Indias Most Profitable Firm</t>
+          <t>Deadline Approaching For SBI Amrit Kalash FD Scheme: Earn High Interest With The Plan – Explore Complete ...</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Free Press Journal</t>
+          <t>Zee News</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>08:46  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RBI’s policy communication nuanced, says SBI’s Khara</t>
+          <t>SBI donates things of daily use to Old Age Home</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Daily Excelsior</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>16:24  10-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SBI Recruitment 2023 Notification Released: Check Post, Salary, Age, Qualification and How to Apply</t>
+          <t>Buy State Bank of India; target of Rs 700: Emkay Global Financial</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>StudyCafe</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>07:01  10-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sbi share price Today Live Updates : Sbi closed today at ₹574.2, up 0.11% from yesterday's ₹573.55 | Mint</t>
+          <t>Glitch or Scam? SBI ATM in Bhubaneswar disburses 1 note less during each withdrawal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>OTV News</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13:03  11-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Buy State Bank of India; target of Rs 700: Emkay Global Financial</t>
+          <t>SBI aims for 1 lakh Customer Service Points by March 2024</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Press Trust of India</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>08:43  09-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Glitch or Scam? SBI ATM in Bhubaneswar disburses 1 note less during each withdrawal</t>
+          <t>SBI Amrit Kalash FD Scheme: Last date soon to apply for this special FD, check benefits and interest rate</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OTV News</t>
+          <t>DNA India</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>07:01  10-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SBI aims for 1 lakh Customer Service Points by March 2024</t>
+          <t>SBI is India's most profitable company, Reliance Industries second | Check list</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Press Trust of India</t>
+          <t>Hindustan Times</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>14:59  11-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SBI Amrit Kalash FD Scheme: Last date soon to apply for this special FD, check benefits and interest rate</t>
+          <t>Why are SBI shares falling post Q1 results? Should you buy, hold or sell this PSU bank stock?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DNA India</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>03:19  10-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SBI beats Reliance to become India's most profitable company</t>
+          <t>Results Updates: SBI Outperforms Nifty 50 with 0.15% Weekly Gain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rediff.com</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13:40  08-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SBI tops Reliance to become India's most profitable company; check top 10 profitable firms in June quarter | Mint</t>
+          <t>SBI Card allows RuPay credit card users to make UPI payments: Steps to link and use</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>DNA India</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10:17  11-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Why are SBI shares falling post Q1 results? Should you buy, hold or sell this PSU bank stock?</t>
+          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>MintGenie</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>06:00  07-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SBI Card allows RuPay credit cards on UPI. Here is how to link | Mint</t>
+          <t>SBI Aims For 1 lakh Customer Service Points By March 2024</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>02:45  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SBI Card allows RuPay credit cards on UPI</t>
+          <t>SBI Q1 results: Profit surges 178% to Rs 16,884 crore; asset quality improves</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>08:19  10-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SBI Card Enables RuPay Credit Cards On UPI</t>
+          <t>SBI plans another Rs 10,000 crore infra bond issue</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>12:02  10-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Results Updates: SBI Outperforms Nifty 50 with 0.15% Weekly Gain</t>
+          <t>SBI to sell distressed loan accounts, including those backed by Anil Ambani, worth ₹96,000 crore: Report | Mint</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>18:01  11-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
+          <t>SBI latest fixed deposit rates 2023: SBI Wecare vs SBI Amrit Kalash. Check FD rates here | Mint</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MintGenie</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>09:07  11-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SBI Aims For 1 lakh Customer Service Points By March 2024</t>
+          <t>RBI monetary policy: SBI Research expects another pause in interest rates</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>18:22  11-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SBI Q1 results: Profit surges 178% to Rs 16,884 crore; asset quality improves</t>
+          <t>ICRR a temporary measure and won't have too much impact on us ...</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>08:13  04-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SBI plans another Rs 10,000 crore infra bond issue</t>
+          <t>SBI Life’s Appointment of Amit Jhingran as MD &amp; CEO Receives IRDAI Approval</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Adda247</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>00:49  07-Aug-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SBI to sell distressed loan accounts, including those backed by Anil Ambani, worth ₹96,000 crore: Report | Mint</t>
+          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>04:20  07-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SBI latest fixed deposit rates 2023: SBI Wecare vs SBI Amrit Kalash. Check FD rates here | Mint</t>
+          <t>SBI Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>EquityPandit</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>09:02  04-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SBI Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
+          <t>PSU banks wary of SBI’s dismal AT-1 bond issue, may delay fund-raising</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EquityPandit</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>16:51  11-Aug-23</t>
+          <t>14-07-23</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SBI, HDFC Bank FDs: How to close fixed deposit online</t>
+          <t>SBI Q1 results may surprise investors. BNP Paribas analyst Santanu ...</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>08:03  08-Aug-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SBI Life’s Appointment of Amit Jhingran as MD &amp; CEO Receives IRDAI Approval</t>
+          <t>SBI Recruitment 2023 Released Notification: Check Vacancies, Age ...</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Adda247</t>
+          <t>StudyCafe</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>11:43  10-Aug-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PSU banks wary of SBI’s dismal AT-1 bond issue, may delay fund-raising</t>
+          <t>Q1 results today: SBI, M&amp;M, IDFC to BHEL — 72 companies to declare Q1 results 2023 | Mint</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>07:00  14-Jul-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Big Movers on D-Street: What should investors do with M&amp;M, SBI ...</t>
+          <t>‘Gamechanger’: SBI YONO app for all. How non-SBI accountholders can make UPI payments using yono | Mint</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>02:42  08-Aug-23</t>
+          <t>17-07-23</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SBI Card enables RuPay credit cards on UPI</t>
+          <t>SBI Card Q1 Results: Net profit falls 5% to ₹593 crore, revenue up 26% | Mint</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Greater Kashmir</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>21:34  11-Aug-23</t>
+          <t>28-07-23</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SBI Q1 results may surprise investors. BNP Paribas analyst Santanu ...</t>
+          <t>Loan fraud: Steel firm booked for cheating SBI of ₹57 crore</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Hindustan Times</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>24-07-23</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Deadline Approaching For SBI Amrit Kalash FD Scheme: Earn High ...</t>
+          <t>Britannia Q1 Results: Net profit rises to ₹455.5 crore, revenue jumps to ₹4,010 crore YoY | Mint</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>08:20  09-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
+          <t>ReNew gets Rs 2,700-cr project loan from SBI</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>06:11  08-Aug-23</t>
+          <t>02-08-23</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Q1 results today: SBI, M&amp;M, IDFC to BHEL — 72 companies to declare Q1 results 2023 | Mint</t>
+          <t>PC Jeweller faces insolvency plea from SBI; NCLT adjourns hearing till Aug 21</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>03:25  04-Aug-23</t>
+          <t>02-08-23</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SBI Card Q1 Results: Net profit falls 5% to ₹593 crore, revenue up 26% | Mint</t>
+          <t>SBI-led consortium to fund Adani Group’s ₹34,000-crore PVC project in Mundra</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>07:00  28-Jul-23</t>
+          <t>20-07-23</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>‘Gamechanger’: SBI YONO app for all. How non-SBI accountholders can make UPI payments using yono | Mint</t>
+          <t>Loan rates to rise? SBI hikes lending rate by 5 bps across tenures from July 15</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>07:00  17-Jul-23</t>
+          <t>15-07-23</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Britannia Q1 Results: Net profit rises to ₹455.5 crore, revenue jumps to ₹4,010 crore YoY | Mint</t>
+          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>14:08  04-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Loan fraud: Steel firm booked for cheating SBI of ₹57 crore</t>
+          <t>Former SBI CFO Charanjit Singh Attra joins Jio Financial Services as COO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hindustan Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>07:00  24-Jul-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SBI clerk recruitment 2023: Vacancy for 4613 posts, Apply online</t>
+          <t>SBI Negotiates With Mumbai Metro One Even As Insolvency Looms</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Kalinga TV</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>07:08  11-Aug-23</t>
+          <t>05-08-23</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ReNew gets Rs 2,700-cr project loan from SBI</t>
+          <t>Infosys share selloff: SBI pips IT major to become 7th most-valued company on D-Street</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>19:17  02-Aug-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SBI-led consortium to fund Adani Group’s ₹34,000-crore PVC project in Mundra</t>
+          <t>SBI clerk recruitment 2023: Vacancy for 4613 posts, Apply online</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Kalinga TV</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>07:00  20-Jul-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
+          <t>SBI likely to raise up to Rs 10,000 cr via infra bonds</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>05:22  08-Aug-23</t>
+          <t>20-07-23</t>
         </is>
       </c>
     </row>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Loan rates to rise? SBI hikes lending rate by 5 bps across tenures from July 15</t>
+          <t>SBI reports merely 3% employee attrition, much lower than Private peers</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>07:00  15-Jul-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3653,17 +3653,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Former SBI CFO Charanjit Singh Attra joins Jio Financial Services as COO</t>
+          <t>SBI Fixed Deposit (FD) or Post Office term deposit? Where to invest your money? Latest interest rates compared | Mint</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>13-07-23</t>
         </is>
       </c>
     </row>
@@ -3675,17 +3675,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SBI Negotiates With Mumbai Metro One Even As Insolvency Looms</t>
+          <t>Market cap of 7 of top-10 most valued firms erode by ₹1 lakh crore; SBI take biggest hit. Details here | Mint</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>06:47  05-Aug-23</t>
+          <t>06-08-23</t>
         </is>
       </c>
     </row>
@@ -3697,17 +3697,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Infosys share selloff: SBI pips IT major to become 7th most-valued company on D-Street</t>
+          <t>Not SBI, Bank of Baroda, these public sector banks championed MSME loans in FY23</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3719,17 +3719,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SBI reports merely 3% employee attrition, much lower than Private peers</t>
+          <t>Stocks to buy today: SBI, ICICI Bank among top 9 trading ideas for 18 July 2023</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>16:47  04-Aug-23</t>
+          <t>18-07-23</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ICRR a temporary measure and won't have too much impact on us ...</t>
+          <t>My 40 Years of Experience with SBI: Blind Man &amp; the Elephant – Part I</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Moneylife</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>06:34  10-Aug-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -3763,17 +3763,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SBI likely to raise up to Rs 10,000 cr via infra bonds</t>
+          <t>SBI Foundation's Youth for India Program Welcomes Batch 2023-24 ...</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Telegraph India</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>07:00  20-Jul-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Technical breakout: SBI, Zydus Wellness, 5 other stocks cross 100-day SMA</t>
+          <t>SBI Special FD Scheme: Double Your Money By Investing In This ...</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Zee News</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>11:36  09-Aug-23</t>
+          <t>20-07-23</t>
         </is>
       </c>
     </row>
@@ -3807,17 +3807,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SBI Foundation's Youth for India Program Welcomes Batch 2023-24 ...</t>
+          <t>A. Bhuvaneshwari assumes office as CGM, SBI</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Telegraph India</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>08:04  10-Aug-23</t>
+          <t>13-07-23</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Not SBI, Bank of Baroda, these public sector banks championed MSME loans in FY23</t>
+          <t>Bajaj Finance, Can Fin Homes, SBI Card &amp; Cholamandalam shares are Jefferies top NBFC picks</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>06:19  04-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SBI Yono 2.0: Revamped app to function like marketplace, allow non-SBI to invest in Mutual Funds and Bonds...</t>
+          <t>Stocks to buy today: SBI Life, GAIL, Eicher Motors among top picks</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>15:25  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -3873,17 +3873,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Stocks to buy today: SBI, ICICI Bank among top 9 trading ideas for 18 July 2023</t>
+          <t>M&amp;M, SBI, Delhivery, Britannia and more: Top brokerage calls on Monday</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>CNBCTV18</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>07:00  18-Jul-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3895,17 +3895,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Stocks to buy today: SBI Life, GAIL, Eicher Motors among top picks</t>
+          <t>Technical breakout: SBI, Zydus Wellness, 5 other stocks cross 100-day SMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>05:34  09-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3917,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bajaj Finance, Can Fin Homes, SBI Card &amp; Cholamandalam shares are Jefferies top NBFC picks</t>
+          <t>SBI home loan: State Bank of India offers concession, 50-100% processing fee waiver till this date</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>11:56  09-Aug-23</t>
+          <t>15-07-23</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3939,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>M&amp;M, SBI, Delhivery, Britannia and more: Top brokerage calls on Monday</t>
+          <t>Stocks in news: ICICI Bank, RIL, Balrampur Chini, Delta Corp, SBI and more</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>04:05  07-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3961,17 +3961,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>My 40 Years of Experience with SBI: Blind Man &amp; the Elephant – Part I</t>
+          <t>Savings Account customer tells SBI not to force customers to buy insurance, Bank replies</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Moneylife</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>30-07-23</t>
         </is>
       </c>
     </row>
@@ -3983,17 +3983,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SBI Special FD Scheme: Double Your Money By Investing In This ...</t>
+          <t>SBI Card's Chief People Officer steps down days after MD resigns to transfer back to SBI</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>07:00  20-Jul-23</t>
+          <t>14-07-23</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4005,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Memorandum of Compromise Entered by Operational Creditor and ...</t>
+          <t>RIL, SBI and TCS among 10 Nifty stocks with golden crossover pattern</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>taxscan.in</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10:00  11-Aug-23</t>
+          <t>09-08-23</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A. Bhuvaneshwari assumes office as CGM, SBI</t>
+          <t>SBI MD bats for allowing special Vostro surplus in corporate bonds</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -4049,17 +4049,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RIL, SBI and TCS among 10 Nifty stocks with golden crossover pattern</t>
+          <t>SBI, Paytm, Eicher Motors Q1 results &amp; more | Market Minutes</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>11:26  09-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Stocks in news: ICICI Bank, RIL, Balrampur Chini, Delta Corp, SBI and more</t>
+          <t>Why investors were lukewarm to SBI’s July AT-1 bond issuance</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>03:56  07-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -4093,17 +4093,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SBI home loan: State Bank of India offers concession, 50-100% processing fee waiver till this date</t>
+          <t>Top gainers, losers today: M&amp;M, Sun Pharma, Tata Motors, SBI among most active stocks | Mint</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>07:00  15-Jul-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -4115,17 +4115,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Two more arrested in SBI, Phulbani branch fraud case</t>
+          <t>Story Of `Indomitable Spirit`: How An Average Kolkata Girl Went On To Lead India`s Largest Bank SBI</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>The New Indian Express</t>
+          <t>Zee News</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>05:28  07-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Savings Account customer tells SBI not to force customers to buy insurance, Bank replies</t>
+          <t>SBI Is State Instrumentality, Writ Petition Maintainable Even In Disputes Pertaining To Contract For Loan ...</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Live Law - Indian Legal News</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>07:00  30-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SBI Card's Chief People Officer steps down days after MD resigns to transfer back to SBI</t>
+          <t>Rural loans, small biz see stress rising | Mint</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>07:00  14-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SBI Fixed Deposit (FD) or Post Office term deposit? Where to invest your money? Latest interest rates compared | Mint</t>
+          <t>Reliance Industries (RIL), State Bank of India (SBI), HDFC Bank - Most profitable large-cap firms in FY23, PFC, Canara Bank among profitable mid-cap firms, BFSI sector witnesses massive growth: The Point</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>07:00  13-Jul-23</t>
+          <t>18-07-23</t>
         </is>
       </c>
     </row>
@@ -4203,17 +4203,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Why investors were lukewarm to SBI’s July AT-1 bond issuance</t>
+          <t>Stock Market Today: Sensex, Nifty Extend Losses For A Second Week On Fed Concerns; FPIs Stay Net Sellers</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>07:48  07-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -4225,17 +4225,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SBI MD bats for allowing special Vostro surplus in corporate bonds</t>
+          <t>Buy State Bank of India, target price Rs 597: ICICI Direct</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>14:24  03-Aug-23</t>
+          <t>19-07-23</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4247,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SBI, Paytm, Eicher Motors Q1 results &amp; more | Market Minutes</t>
+          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>03:19  04-Aug-23</t>
+          <t>25-07-23</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>10:23  11-Aug-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Story Of `Indomitable Spirit`: How An Average Kolkata Girl Went On To Lead India`s Largest Bank SBI</t>
+          <t>Stocks to buy today: LIC Housing, SBI Life among 8 short-term ...</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>07:10  08-Aug-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Rural loans, small biz see stress rising | Mint</t>
+          <t>Supreme Court judge, Harish Salve in disagreement over SBI 'takeover' of Yes Bank</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>India Today</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>17:18  08-Aug-23</t>
+          <t>15-07-23</t>
         </is>
       </c>
     </row>
@@ -4335,17 +4335,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SBI Is State Instrumentality, Writ Petition Maintainable Even In Disputes Pertaining To Contract For Loan ...</t>
+          <t>Brokerages verdict on SBI Q1, Yatharth Hospitals listing &amp; more | Market Minutes</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Live Law - Indian Legal News</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>05:00  08-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4357,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Reliance Industries (RIL), State Bank of India (SBI), HDFC Bank - Most profitable large-cap firms in FY23, PFC, Canara Bank among profitable mid-cap firms, BFSI sector witnesses massive growth: The Point</t>
+          <t>Recurring deposit (RD) interest rates compared: SBI vs HDFC Bank vs ICICI Bank vs Yes Bank vs PNB</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>07:00  18-Jul-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -4379,17 +4379,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Stock Market Today: Sensex, Nifty Extend Losses For A Second Week On Fed Concerns; FPIs Stay Net Sellers</t>
+          <t>Former State Bank of India chairman Rajnish Kumar reveals annual salary at India's richest public sector bank</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>DNA India</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>12:08  04-Aug-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -4401,17 +4401,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Stocks to buy today: LIC Housing, SBI Life among 8 short-term ...</t>
+          <t>SBI disburses ₹2.08 crore loan to self-help groups at special camp</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>04:52  08-Aug-23</t>
+          <t>21-07-23</t>
         </is>
       </c>
     </row>
@@ -4423,17 +4423,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Buy State Bank of India, target price Rs 597: ICICI Direct</t>
+          <t>From SBI To Mukesh Ambani’s Reliance, Top 10 Most Profitable Indian Company In The First Quarter Of FY24</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mashable India</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>07:00  19-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
+          <t>PLI on track; investment commitments at 60% of capex target: SBI MF research</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>07:00  25-Jul-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Short Call | Promoters selling back, rates crawling up, SBI contrarian, RBL Bank, shareholder’s...</t>
+          <t>SBI’s YONO marred by issues and customer complaints</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>03:17  07-Aug-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -4489,17 +4489,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Supreme Court judge, Harish Salve in disagreement over SBI 'takeover' of Yes Bank</t>
+          <t>SBI launches PMSVANidhi publicity campaign in Hyderabad</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>India Today</t>
+          <t>Telangana Today</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>07:00  15-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4511,17 +4511,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Highest FD interest rate on which tenure: SBI vs ICICI Bank vs HDFC Bank vs Yes Bank vs PNB vs Canara Bank</t>
+          <t>Memorandum of Compromise Entered by Operational Creditor and ...</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>taxscan.in</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>07:00  31-Jul-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -4533,17 +4533,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Former State Bank of India chairman Rajnish Kumar reveals annual salary at India's richest public sector bank</t>
+          <t>Stocks To Watch: Adani Transmission, Vedanta, Bank Of India, L&amp;T, SBI, Ramkrishna Forgings, DB Realty, ONGC</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DNA India</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>07:00  31-Jul-23</t>
+          <t>19-07-23</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>From SBI To Mukesh Ambani’s Reliance, Top 10 Most Profitable Indian Company In The First Quarter Of FY24</t>
+          <t>Stock Market Highlights: Sensex, Nifty break 3-day losing streak, SBI ends 3% lower on below-estimate results</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Mashable India</t>
+          <t>CNBCTV18</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>11:30  08-Aug-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SBI disburses ₹2.08 crore loan to self-help groups at special camp</t>
+          <t>Stocks that share market analysts recommended on August 8, 2023: Eicher Motors, Zomato, M&amp;M, and State Bank of India (SBI)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>07:00  21-Jul-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4599,17 +4599,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLI on track; investment commitments at 60% of capex target: SBI MF research</t>
+          <t>State Bank of India Q1 Net Profit seen up 122.8% YoY to Rs. 13,520.8 cr: Nirmal Bang</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>13:36  03-Aug-23</t>
+          <t>14-07-23</t>
         </is>
       </c>
     </row>
@@ -4621,17 +4621,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SBI launches PMSVANidhi publicity campaign in Hyderabad</t>
+          <t>Stocks to watch this week: SBI, Berger Paints, ZEEL, ITC, BHEL, Karur Vysya Bank, M&amp;M &amp; Lloyds Metals</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Telangana Today</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>15:48  08-Aug-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -4643,17 +4643,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SBI’s YONO marred by issues and customer complaints</t>
+          <t>SBI Q4 results: Net profit jumps 83% YoY to ₹16,695 crore; NII up 29%; announces dividend of ₹11.3 | Mint</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>08:44  03-Aug-23</t>
+          <t>18-05-23</t>
         </is>
       </c>
     </row>
@@ -4665,17 +4665,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Stocks To Watch: Adani Transmission, Vedanta, Bank Of India, L&amp;T, SBI, Ramkrishna Forgings, DB Realty, ONGC</t>
+          <t>SBI launches project Kuber</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>07:00  19-Jul-23</t>
+          <t>05-06-23</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Stock Market Highlights: Sensex, Nifty break 3-day losing streak, SBI ends 3% lower on below-estimate results</t>
+          <t>Transferred money to the wrong bank account? State Bank of India (SBI) explains how to get it back | Mint</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>10:31  04-Aug-23</t>
+          <t>24-06-23</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>State Bank of India Q1 Net Profit seen up 122.8% YoY to Rs. 13,520.8 cr: Nirmal Bang</t>
+          <t>SBI outage impacts several customers: Downdetector</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Times of India</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>07:00  14-Jul-23</t>
+          <t>13-02-23</t>
         </is>
       </c>
     </row>
@@ -4731,17 +4731,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fisherfolk lay siege to SBI office in Kerala after bank loses their ...</t>
+          <t>State Bank of India (SBI) raises USD 750 million via bonds | Mint</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>The News Minute</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>07:00  14-Jul-23</t>
+          <t>28-04-23</t>
         </is>
       </c>
     </row>
@@ -4753,17 +4753,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SBI Q4 results: Net profit jumps 83% YoY to ₹16,695 crore; NII up 29%; announces dividend of ₹11.3 | Mint</t>
+          <t>SBI shares fall for five straight sessions; what’s next?</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>07:00  18-May-23</t>
+          <t>23-06-23</t>
         </is>
       </c>
     </row>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SBI launches project Kuber</t>
+          <t>SBI to consider $2 billion fundraising in FY24 via senior unsecured notes, board to meet on 18 Apr | Mint</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>07:00  05-Jun-23</t>
+          <t>10-04-23</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transferred money to the wrong bank account? State Bank of India (SBI) explains how to get it back | Mint</t>
+          <t>SBI to divest its 2% equity stake in NSDL IPO via OFS | Mint</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>07:00  24-Jun-23</t>
+          <t>10-07-23</t>
         </is>
       </c>
     </row>
@@ -4819,17 +4819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SBI outage impacts several customers: Downdetector</t>
+          <t>Best CEOs: How Dinesh Kumar Khara is taking SBI to new heights</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Times of India</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>08:00  13-Feb-23</t>
+          <t>27-04-23</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>State Bank of India (SBI) raises USD 750 million via bonds | Mint</t>
+          <t>SBI share price: Experts give 'buy' tag as bank mulls fund raise. Should you buy? | Mint</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>07:00  28-Apr-23</t>
+          <t>06-06-23</t>
         </is>
       </c>
     </row>
@@ -4863,83 +4863,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SBI shares fall for five straight sessions; what’s next?</t>
+          <t>ATM से पैसे निकालने का क्या है चार्ज?SBI vs PNB vs HDFC Bank vs ICICI Bank</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Zee Business हिंदी</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>07:00  23-Jun-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SBI</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>SBI to consider $2 billion fundraising in FY24 via senior unsecured notes, board to meet on 18 Apr | Mint</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Mint</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>07:00  10-Apr-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SBI</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>SBI to divest its 2% equity stake in NSDL IPO via OFS | Mint</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Mint</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>07:00  10-Jul-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>SBI</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Best CEOs: How Dinesh Kumar Khara is taking SBI to new heights</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Business Today</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>07:00  27-Apr-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>

--- a/google_news_scraped_data.xlsx
+++ b/google_news_scraped_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HDFC Bank chief Jagdishan flags funding risk in first post-merger AGM</t>
+          <t>HDFC Bank's branch opening spree leaves Zerodha's Nithin Kamath thinking. Here's why</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HDFC Banks CEO raises concerns about funding risk post merger; anticipates impact on net interesnt margins</t>
+          <t>Why HDFC Bank Stock Could Be a Sell | Mint</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Funding remains biggest risk to merger, Says HDFC Bank MD</t>
+          <t>HDFC Bank plans to double balance sheet in 4-5 years</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Merger to boost fund flow to affordable housing, farm, MSMEs: HDFC Bank Chairman</t>
+          <t>Possibility of a Bearish Reversal in HDFC Bank?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>Equitymaster</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Post merger, HDFC Bank can offer higher credit growth opportunities to the nation, says chairman</t>
+          <t>HDFC Bank wants to ride India consumer boom after home loan dominance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HDFC Bank NIM to moderate in Q2: MD Sashidhar Jagdishan</t>
+          <t>HDFC Ltd-HDFC Bank merger: What differences home loan borrowers should know before shifting from MCLR to ELBR?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HDFC Bank To Invest 7–8% Net Revenue On Tech Spends</t>
+          <t>From Aircons to Cars and TVs, India’s HDFC Bank Wants to Give Loans For Everything</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HDFC Bank eyes need-based product sales for new customers, post merger with HDFC</t>
+          <t>From Amex to HDFC to LG: This Delhi-based platform is behind all your reward programmes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>20-08-23</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Merger to boost fund flows to affordable housing, says HDFC Bank chairman Atanu Chakraborty</t>
+          <t>HDFC Bank Launches State-of-the-Art Assets and Loan Hub in Infocity, Bhubaneswar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Newsroom Odisha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HDFC Nifty Smallcap 250 ETF - NAV, Performance, Portfolio, Ratings</t>
+          <t>IDFC First Bank, HDFC Bank, ICICI Bank: Which Banking Stock Has Delivered Highest Returns In Last One Year;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Jagran English</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
+          <t>Sensex, Nifty End Flat As ITC Leads, HDFC Bank Drags: Market Wrap</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MintGenie</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCDRC Holds HDFC Bank Liable For Deficiency In Service</t>
+          <t>HDFC Bank Share Price Today Live Updates: HDFC Bank Sees Slight Increase in Current Price, SMA7 at Rs 1594.88</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Live Law - Indian Legal News</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HDFC Bank Share Price Live Updates: HDFC Bank Sees a 0.91% Decrease in Current Price, EMA7 at Rs 1637.12</t>
+          <t>HDFC Bank rises Wednesday, still underperforms market</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Economic Times</t>
+          <t>MarketWatch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hdfc Bank share price Today Live Updates : Hdfc Bank closed today at ₹1619.05, down -1.05% from yesterday's ₹1636.3 | Mint</t>
+          <t>HDFC Bank Swiggy Credit Card offers 10% cashback, higher than most cashback credit cards; is it a good dea</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hdfc Bank Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
+          <t>`The perception that you lend and lose money in villages is incorrect’: HDFC Bank</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EquityPandit</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RIL, Infosys, ICICI Bank, HDFC Bank, TCS shares to see outflows on drop in MSCI weightages</t>
+          <t>HDFC Capital, Abhinandan Lodha Group ink JV to invest Rs 1,500 crore in low-rise projects</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HDFC Bank shares in focus as FTSE to raise stock weightage in its indices</t>
+          <t>Hot Stocks: Brokerages on Bajaj Finance, HDFC Bank, Bharat Forge and CarTrade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maruti Suzuki partners with HDFC bank to introduce ‘Xpress Car Loans’</t>
+          <t>These bank stocks can give up to 31% returns</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HDFC Bank hikes lending rates: Loan EMIs to go up. Check latest MCLR rates here | Mint</t>
+          <t>Stocks to buy today: HDFC Bank, Escorts among top 8 trading ideas by experts for 21 August 2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nifty may hit 20,700 by Diwali 2023, says ICICI Direct; HDFC Bank, Tata Motors, Reliance among top picks | Mint</t>
+          <t>Marriott India all set to launch co-branded credit card with HDFC ...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Live From A Lounge</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HDFC Bank picks up 1 lakh sq ft in Blackstone's Mumbai Towers on a 5-yr lease</t>
+          <t>HDFC Bank CEO flags funding risk post merger, says net interest margins may get hit | Mint</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>06-08-23</t>
+          <t>12-08-23</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MC Interview: Inflation for July-September will cross RBI's projection, says HDFC economist Sakshi Gupta</t>
+          <t>HDFC Bank, ICICI Bank, and Canara are among five banks that have hiked lending rates this month. Check full list here | Mint</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sensex, Nifty Fall As RIL, ICICI Bank, HDFC Bank Drag: Midday Market Update</t>
+          <t>HDFC Bank net banking will be down on this day; here are alternatives</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>05-08-23</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Buy ITD Cementation; target of Rs 230 : HDFC Securities</t>
+          <t>Buy KNR Constructions, target price Rs 286: HDFC Securities</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>From HDFC Bank to Coforge: Yes Securities recommends 10 stocks to buy for August | Mint</t>
+          <t>Buy NBCC (India), target price Rs 55: HDFC Securities</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HDFC Bank, Tata Elxsi, nine other companies to declare Q1 results ...</t>
+          <t>HDFC's life insurance, mutual fund arms to start operations from Gift City</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HDFC merger: tax implications for shareholders | Mint</t>
+          <t>Stocks to Watch: HDFC Bank, ONGC, Adani Ports, Aurobindo Pharma, RVNL | Mint</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HDFC Bank's Jagdishan Highest Paid Bank CEO In FY23 With Rs 10.55 Cr Pay</t>
+          <t>HDFC Bank shares in focus as FTSE to raise stock weightage in its indices</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HDFC Bank expects 17-18% credit growth this year | Mint</t>
+          <t>From HDFC Bank to Bharti Airtel: Top ten holdings of various mutual funds</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Irdai Permits Insurers To Hold Investments In HDFC In ‘Housing And Infrastructure’ Category</t>
+          <t>Tata Motors, HDFC Bank among 12 stocks with highest upgrades after Q1 results. Which ones to buy?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HDFC Bank CEO Jagdishan's remuneration soars by 62% in FY23; Raises concerns over attrition | Mint</t>
+          <t>Best bank FD interest rates: SBI, HDFC Bank, ICICI Bank, Axis Bank, or Canara Bank. Latest fixed deposit rates here | Mint</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20-07-23</t>
+          <t>20-08-23</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HDFC Bank home loan biz to benefit from low cost of funds</t>
+          <t>Buy Tata Communications, India Glycols, recommends HDFC Securities</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>msnNOW</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Stocks to Watch: RIL, Godrej Consumer, Paytm, Tata Chemicals, HDFC Bank | Mint</t>
+          <t>TCS, HDFC Bank, 8 other firms lose Rs 80,200 crore in mcap in a week</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Why shadow banks have a place despite HDFC, in 5 charts | Mint</t>
+          <t>HDFC Capital, TVS Emerald plotted development JV in talks to close 3 land deals</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>India insurance regulator allows exemptions for holdings in merged ...</t>
+          <t>HDFC MF pares 2.12% stake in Garden Reach Shipbuilders and Engineers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Reuters India</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>20-08-23</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reduce Balkrishna Industries; target of Rs 2148 : HDFC Securities</t>
+          <t>Diamond Hill Capital Management Inc. Raises Stake in HDFC Bank ...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>MarketBeat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
+          <t>HDFC Bank hikes lending rates: Loan EMIs to go up. Check latest MCLR rates here | Mint</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Buy HDFC Bank at current levels if you have a one-year plus time horizon: Sudip Bandyopadhyay</t>
+          <t>Top firms lose ₹74,603.06 crore in market valuation; HDFC Bank biggest laggard | Mint</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22-07-23</t>
+          <t>13-08-23</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Merger to enable HDFC Bank to take big exposure in infra projects: CEO</t>
+          <t>HDFC Bank picks up 1 lakh sq ft in Blackstone's Mumbai Towers on a 5-yr lease</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20-07-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HDFC Mutual Fund launches new fund offer (NFO). Details here | Mint</t>
+          <t>Swiggy launches co-branded card with HDFC Bank</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>01-08-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reduce Emami; target of Rs 400 : HDFC Securities</t>
+          <t>HDFC in bank’s fold takes borrowings, credit to new highs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>30-07-23</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JPMorgan 'overweight' on HDFC Bank after HDFC twins merger; here's why | Mint</t>
+          <t>Will there be signs of reversal from Reliance, HDFC Bank? Learn from Anil Singhvi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13-07-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HDFC Bank stock may outperform Nifty Bank, IndusInd Bank shares may do well</t>
+          <t>RBI, HDFC still in talks on infra tag for bonds; insurers seek IRDAI relief</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Reduce The Ramco Cements; target of Rs 830 : HDFC Securities</t>
+          <t>Bharat Forge, KNR Constructions: Here's what Devarsh Vakil of HDFC Securities says on these 2 stocks</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hdfc Bank share price Today Live Updates : Hdfc Bank closed today at ₹1640.9, down -1.25% from yesterday's ₹1661.6 | Mint</t>
+          <t>After broader market, languishing largecaps will reverse: Mahantesh Sabarad</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>02-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HDFC AMC delivers strong Q1FY24 performance: Robust revenue growth and 52% increase in profit after tax | Mint</t>
+          <t>IDBI Bank, HDFC Bank, ICICI Bank: Here's what Sunny Agrawal of SBI Securities says on these 3 stocks</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HDFC Bank onboards over 1 lakh customers, 1.7 lakh merchants on CBDC</t>
+          <t>HDFC Bank introduces 'One Pune' card with MAHA-Metro - Elets BFSI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The Indian Express</t>
+          <t>Elets</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13-07-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Aim to double every four years: HDFC Bank MD after merger</t>
+          <t>IndiGo, BPCL, HDFC Bank, Bajaj Auto: Stocks fall despite upgrades to FY24 profit estimates!</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>01-08-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Traders Diary: Buy, sell or hold strategy on HDFC AMC, DLF, HCL Tech, Manappuram, Samvardhana Motherson, ov...</t>
+          <t>TCS reclaims title of 2nd most valued firm by mcap; HDFC Bank takes 3rd place</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HDFC Bank Launches ‘Purani Gaadi, Nayi Shuruaat’ Initiative</t>
+          <t>CP sales fall to 9-year low post HDFC merger</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TheLiveNagpur</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F&amp;O Strategy: Bear spread on Bank Nifty, suggests HDFC Securities</t>
+          <t>HDFC Mutual Fund launches new fund offer (NFO). Details here | Mint</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HDFC Bank’s initiative</t>
+          <t>HDFC Mutual Fund launches HDFC Nifty 1D Rate Liquid ETF. Should you invest?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The Tribune India</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Technical breakout: HDFC Bank, Persistent Systems among 9 stocks crossing 100-day SMA</t>
+          <t>Aim to double every four years: HDFC Bank MD after merger</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Stocks To Watch On 8 August: Godrej Consumer, Tata Chemicals, HDFC Bank, Others In News</t>
+          <t>With ₹10.55 crore pay, HDFC Bank's Sashidhar Jagdishan is highest paid bank CEO in FY23 | Mint</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Outlook India</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>06-08-23</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Egerton Capital UK LLP Takes $156.50 Million Position in HDFC ...</t>
+          <t>Buy HDFC Bank; target of Rs 1964: Geojit</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MarketBeat</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HDFC Bank's weight increase in FTSE, PB Fintech Q1 &amp; hospital stocks | Market Minutes</t>
+          <t>SBI staring at intense competition post-HDFC Bank merger. But what makes it a forever-value stock?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Q1 Results Preview: HDFC Bank likely to report 26% jump in Q1 net profit driven by strong loan growth</t>
+          <t>Stocks to buy: HDFC Bank, TCS, M&amp;M, NTPC among analysts top picks today</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CCI clears proposed acquisition of HDFC Credila Financial Services</t>
+          <t>HDFC Bank Stocks Live Updates: HDFC Bank Sees a Slight Dip in Price Today, with 1-Month Returns in the N...</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Deccan Herald</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Stocks to Watch: HDFC Bank, JSW Energy, Bandhan Bank, Lupin, Suzlon | Mint</t>
+          <t>Another 15-20% upside likely in Varun Beverages; Bajaj Auto to compound for next 2 yrs: Rahul Shah</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17-07-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Markets gain after 3 days of losses, HDFC Bank, RIL account for half gains</t>
+          <t>HDFC Bank, Axis Bank, ICICI Bank &amp; Bajaj Finance among Deven Choksey's top stock picks</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -1827,17 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reduce Orient Electric; target of Rs 230 : HDFC Securities</t>
+          <t>Polycab India Provides Comfort Letter to HDFC Bank for Borrowing ...</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Clayton County Register</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Buy State Bank of India; target of Rs 750 : HDFC Securities</t>
+          <t>HDFC Bank, SBI or ICICI Bank: Which bank offers best FD rates? Know here</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>DNA India</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>19-08-23</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Buy HDFC Bank; target of Rs 1964: Geojit</t>
+          <t>Reduce JK Cement; target of Rs 2755: HDFC Securities</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>26-07-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HDFC Bank, Tata Power among 10 stocks with RSI trending up</t>
+          <t>Nykaa, HDFC AMC among 5 stocks to exit Nifty Next50 in index rejig</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>18-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Income tax: Taxation of shares and fractional shares received on the merger | Mint</t>
+          <t>Analysts bullish on HDFC Bank's long-term growth; see up to 35% upside</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Rediff.com</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -1937,17 +1937,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reduce Aditya Birla Fashion and Retail; target of Rs 190 : HDFC Securities</t>
+          <t>Dvara KGFS, HDFC Bank in co-lending pact to support micro businesses in rural India</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>25-07-23</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
+          <t>Gujarat : HDFC Bank launches ‘Monsoon Bike Bliss Fiesta’</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>The Blunt Times</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TCS reclaims title of 2nd most valued firm by mcap; HDFC Bank takes 3rd place</t>
+          <t>HDFC Bank Surpasses SBI in CRISIL’s Corporate Banking Ranking for 2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Adda247</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31-07-23</t>
+          <t>29-07-23</t>
         </is>
       </c>
     </row>
@@ -2003,17 +2003,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HDFC ERGO unveils 'here' app to redefine consumer experience</t>
+          <t>Buy City Union Bank; target of Rs 160: HDFC Securities</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Well played HDFC, the bond market will miss you</t>
+          <t>Stocks to watch: Concord Biotech, Yatharth Hospital, Page Ind, Indus Towers, HDFC Life, ONGC, Jain Irrigati...</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>23-07-23</t>
+          <t>20-08-23</t>
         </is>
       </c>
     </row>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Buy Mahindra and Mahindra; target of Rs 1674 : HDFC Securities</t>
+          <t>Recurring deposit (RD) interest rates compared: SBI vs HDFC Bank vs ICICI Bank vs Yes Bank vs PNB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -2069,17 +2069,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Reduce LIC Housing Finance; target of Rs 395 : HDFC Securities</t>
+          <t>Now there's greater diversity in way funds are managed at HDFC MF: Setalvad</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>15-08-23</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HDFC Bank Asked To Pay Rs35,000 for Creating 2 FDs Instead of ...</t>
+          <t>SBI, HDFC Bank &amp; Minda Corporation: Here's what Vinit Bolinjkar of Ventura Securities says on these 3 stocks</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Moneylife</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Meet Sashidhar Jagdishan, the CEO of HDFC Bank who met Tim Cook and is about to launch Apple card in India, know about his journey &amp; net worth</t>
+          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>25-07-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Amazon Sale 2023: Get Rs 4,000 Instant Discount From HDFC Bank Cards On These TVs</t>
+          <t>HDFC Flexi Cap: A veteran fund beckons investors</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>India.com</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HDFC Bank Q1 Net Profit seen up 24.3% YoY to Rs. 11,427.2 cr: Nirmal Bang</t>
+          <t>Reduce Hero Motocorp; target of Rs 2672: HDFC Securities</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>How does the Swiggy HDFC credit card compare with other cashback cards?</t>
+          <t>Traders Diary: Buy, sell or hold strategy on ITC, HDFC AMC, Titan, HUL, USL, over a dozen other stocks toda...</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>27-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Buy Cummins; target of Rs 2100 : HDFC Securities</t>
+          <t>Buy Crompton Consumer; target of Rs 400: HDFC Securities</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Q1 Results: Net profit rises 15% to ₹415 crore, net income premium up 17% | Mint</t>
+          <t>Reduce TTK Prestige; target of Rs 725: HDFC Securities</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Analyst recommends long positions in LTIMindtree, Berger Paints and HDFC Bank</t>
+          <t>Buy NCC; target of Rs 174: HDFC Securities</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>01-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Buy GAIL (India); target of Rs 137: HDFC Securities</t>
+          <t>Stocks that saw big block deals this week: HDFC Bank, Reliance Industries, RVNL, Infosys, and more</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>29-07-23</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mcap of seven of top-10 most valued firms erode by Rs 1 lakh cr ...</t>
+          <t>Maruti Suzuki brings HDFC Bank ‘Xpress Car Loans’ feature to its Smart Finance platform</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>ETAuto</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>06-08-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HDFC Bank HDFC merger: What this twins merger mean for Indian ...</t>
+          <t>BT Best Fund Manager: Gopal Agarwal’s HDFC AMC fund tops large- and mid-cap category with 30% return in 3 years</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>01-07-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>How HDFC Bank HDFC merger will impact equity mutual funds — explained | Mint</t>
+          <t>Technical stock picks | Hind Copper, Bharat Forge, HDFC Bank, Bajaj Auto, BEL on the radar</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>CNBCTV18</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>03-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -2355,17 +2355,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HDFC and HDFC Bank merger likely on 1 July | Mint</t>
+          <t>Reduce Fsn E-commerce Ventures (Nykaa); target of Rs 130: HDFC Securities</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>28-06-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HDFC twins: How much funds outflow will HDFC Bank-HDFC merged entity see after MSCI plan | Mint</t>
+          <t>Stocks in news: Adani Green, HDFC Bank, PB Fintech, Adani Ports, Coal India</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>06-05-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HDFC Bank to replace HDFC on MSCI global standard index from July 13 | Mint</t>
+          <t>Buy Aarti Industries; target of Rs 619: HDFC Securities</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>07-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HDFC Bank share price underperforms Sensex post-merger; what should you do? | Mint</t>
+          <t>First Week of April 2024 Options Trading For HDFC Bank (HDB)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Nasdaq</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>06-07-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LTIMindtree to replace HDFC on Nifty 50 benchmark with effect from 13 July after HDFC Bank takeover | Mint</t>
+          <t>Mirae Asset Multicap Fund, two HDFC NFOs open for subscription</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>04-07-23</t>
+          <t>28-07-23</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HDFC Bank shares halt 5-day winning run, slip 3% post Q1 updates</t>
+          <t>Stocks in news: Nykaa, HDFC AMC, Concord Biotech, JSW Steel, Adani Energy</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>05-07-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HDFC Bank to sell 2% stake in NSDL IPO; lender to announce Q1 results on July 17</t>
+          <t>Spend-IT: HDFC Life accelerates tech expenditure to digitise ...</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>TechCircle</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>09-07-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HDFC-HDFC Bank merger to close soon, record date awaited</t>
+          <t>Stock Market Update: Adani Enterprises, HDFC Life Insurance, ITC ...</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Clayton County Register</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13-06-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HDFC Bank: How the banking behemoth is revolutionising work culture</t>
+          <t>HDFC Bank removes Infinia daily capping on rewards for SmartBuy ...</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Live From A Lounge</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17-04-23</t>
+          <t>02-08-23</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>'It is time to hang my boots': HDFC chairman Deepak Parekh a day ahead of likely merger with HDFC Bank</t>
+          <t>Reduce Emami; target of Rs 400 : HDFC Securities</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>30-06-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HDFC Bank stares at NIM, cost concerns after decent Q4 show | Mint</t>
+          <t>Top 10 stocks held by HDFC Mutual Fund</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>17-04-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HDFC warrants to list under HDFC Bank | Mint</t>
+          <t>Has the overall growth in new business for private life insurers slowed?</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>22-06-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Will HDFC Bank remain the Arnold Schwarzenegger of banks for next 10-20 years? Devina Mehra explains</t>
+          <t>Nifty Bank extends losses to 6th day in a row - its longest losing streak in over 10 months</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RBI allows SBI Funds to buy up to 9.99% stake in HDFC Bank | Mint</t>
+          <t>Parekh says GIFT City demonstrates India’s capability to re-image its cities</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Indian Express</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>17-05-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HDFC, HDFC Bank share prices turn ex-dividend today; how much investors may get | Mint</t>
+          <t>HDFC Bank HDFC merger: What this twins merger mean for Indian ...</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>16-05-23</t>
+          <t>01-07-23</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SBI tops Reliance to become India's most profitable company; check top 10 profitable firms in June quarter | Mint</t>
+          <t>SBI eyes Mumbai flats for execs | Mint</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>20-08-23</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Old SBI customer’s ATM card expired, but the bank refused to re-issue automatically – Here’s why</t>
+          <t>SBI Recruitment 2023: Anual CTC Up to 40 Lakhs, Check Post, Age, Qualification and Other Important Details</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>StudyCafe</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SBI Recruitment 2023 Notification Released: Check Post, Salary, Age, Qualification and How to Apply</t>
+          <t>Here is how to link your SBI RuPay credit card to UPI in 5 simple steps</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>StudyCafe</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RBI’s policy communication nuanced, says SBI’s Khara</t>
+          <t>SBI Appoints Four Directors To The Board</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Adda247</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Deadline Approaching For SBI Amrit Kalash FD Scheme: Earn High Interest With The Plan – Explore Complete ...</t>
+          <t>LIC, Adani Power, SBI among top 15 most profitable firms of June quarter. Should you buy any of these?</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SBI donates things of daily use to Old Age Home</t>
+          <t>Sbi share price Today Live Updates : Sbi closed today at ₹576.9, up 1.51% from yesterday's ₹568.3 | Mint</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Daily Excelsior</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Buy State Bank of India; target of Rs 700: Emkay Global Financial</t>
+          <t>Moving Averages Updates: SBI Breaks Above 100-Day EMA, Registers 1.55% Gain</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Glitch or Scam? SBI ATM in Bhubaneswar disburses 1 note less during each withdrawal</t>
+          <t>SBI Wecare Senior Citizen FD Scheme VS SBI Amrit Kalash FD Scheme: Check Comparison</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OTV News</t>
+          <t>Zee News</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SBI aims for 1 lakh Customer Service Points by March 2024</t>
+          <t>SBI WeCare vs SBI Amrit Kalash: Which FD Scheme Should You Pick?</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Press Trust of India</t>
+          <t>News18</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SBI Amrit Kalash FD Scheme: Last date soon to apply for this special FD, check benefits and interest rate</t>
+          <t>SBI FD scheme Extension</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DNA India</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SBI is India's most profitable company, Reliance Industries second | Check list</t>
+          <t>SBI sees India's GDP growing 8.3% in April-June, 6.7% in FY24</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Hindustan Times</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Why are SBI shares falling post Q1 results? Should you buy, hold or sell this PSU bank stock?</t>
+          <t>Indian Economy to grow at 8.3% in the first quarter and 6.7% in FY24: What the SBI research says</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>OpIndia</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Results Updates: SBI Outperforms Nifty 50 with 0.15% Weekly Gain</t>
+          <t>India’s GDP growth in Q1 FY24 to touch 8.3% as compared to RBI’s estimate of 7.8%: SBI Ecowrap</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Economic Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SBI Card allows RuPay credit card users to make UPI payments: Steps to link and use</t>
+          <t>Assamese musician joins London’s Royal College of Music; SBI supports</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DNA India</t>
+          <t>The Assam Tribune</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HDFC Bank vs SBI: Which banking major has better long-term investment opportunities?</t>
+          <t>Mumbai News: CBI Initiates Investigation into Alleged Forgery and Fraud Involving SBI by Private Firm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MintGenie</t>
+          <t>Free Press Journal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SBI Aims For 1 lakh Customer Service Points By March 2024</t>
+          <t>SBI branch manager commits suicide unable to bear’ heavy work pressure’</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>Hindudayashankar</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SBI Q1 results: Profit surges 178% to Rs 16,884 crore; asset quality improves</t>
+          <t>Will SBI Deduct ₹57.5 After 40 Withdrawals A Year? Viral Message Is Fake | BOOM</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>BOOM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SBI plans another Rs 10,000 crore infra bond issue</t>
+          <t>SBI chief Dinesh Khara likely to get 10-month extension</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>IndiaTimes</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SBI to sell distressed loan accounts, including those backed by Anil Ambani, worth ₹96,000 crore: Report | Mint</t>
+          <t>SBI Appoints Four Directors to Central Board for 3-Year Term</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Indiainfoline</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SBI latest fixed deposit rates 2023: SBI Wecare vs SBI Amrit Kalash. Check FD rates here | Mint</t>
+          <t>Technical breakout: RIL, SBI among 7 largecap stocks cross 100-day SMA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RBI monetary policy: SBI Research expects another pause in interest rates</t>
+          <t>Top gainers, losers today: SBI, ICICI Bank, Jio Financial Services, Sun Pharma, among most active stocks | Mint</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ICRR a temporary measure and won't have too much impact on us ...</t>
+          <t>SBI sanctions Rs 50 crore additional loan to Star Housing Finance</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>ETRealty</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SBI Life’s Appointment of Amit Jhingran as MD &amp; CEO Receives IRDAI Approval</t>
+          <t>SBI Report: Average income of middle class grows from Rs 4.4 to Rs 13 lakh in last ten years</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Adda247</t>
+          <t>Organiser</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
+          <t>State Bank of India: Bearish to sideways</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SBI Outlook for the Week (August 14, 2023 - August 18, 2023)</t>
+          <t>SBI tops Reliance to become India's most profitable company; check top 10 profitable firms in June quarter | Mint</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EquityPandit</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PSU banks wary of SBI’s dismal AT-1 bond issue, may delay fund-raising</t>
+          <t>SBI Fund Management turns to cash on bets RBI will hike rates further</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14-07-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SBI Q1 results may surprise investors. BNP Paribas analyst Santanu ...</t>
+          <t>SBI offers relief to loan borrowers in Manipur</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SBI Recruitment 2023 Released Notification: Check Vacancies, Age ...</t>
+          <t>SBI posts record profit on lower provisions, strong other income | Mint</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>StudyCafe</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>12-08-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Q1 results today: SBI, M&amp;M, IDFC to BHEL — 72 companies to declare Q1 results 2023 | Mint</t>
+          <t>SBI overtakes Reliance as most profitable company in Q1. Full list here</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>‘Gamechanger’: SBI YONO app for all. How non-SBI accountholders can make UPI payments using yono | Mint</t>
+          <t>SBI, Tata Motors top picks post Q1 results; experts see over 20% upside in 12 months</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>17-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SBI Card Q1 Results: Net profit falls 5% to ₹593 crore, revenue up 26% | Mint</t>
+          <t>ICICI Bank, SBI, Ujjivan Small Finance Bank among top picks by Axis Securities in banking sector; check details | Mint</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>28-07-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loan fraud: Steel firm booked for cheating SBI of ₹57 crore</t>
+          <t>SBI, Titan among 10 Nifty stocks with golden crossover pattern</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Hindustan Times</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>24-07-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Britannia Q1 Results: Net profit rises to ₹455.5 crore, revenue jumps to ₹4,010 crore YoY | Mint</t>
+          <t>Special fixed deposit: SBI extends Amrit Kalash FD scheme till this date. Interest rate, other details here | Mint</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ReNew gets Rs 2,700-cr project loan from SBI</t>
+          <t>SBI Funds completes liquidation of assets in Franklin Templeton MF’s six debt schemes</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>02-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PC Jeweller faces insolvency plea from SBI; NCLT adjourns hearing till Aug 21</t>
+          <t>SBI official arrested over staffer suicide in Ratnagiri</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>IndiaTimes</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>02-08-23</t>
+          <t>19-08-23</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SBI-led consortium to fund Adani Group’s ₹34,000-crore PVC project in Mundra</t>
+          <t>SBI latest fixed deposit rates 2023: SBI Wecare vs SBI Amrit Kalash. Check FD rates here | Mint</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>20-07-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loan rates to rise? SBI hikes lending rate by 5 bps across tenures from July 15</t>
+          <t>SBI has been, is and will be largest home loan lender, says chairman Dinesh Khara | Mint</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>15-07-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ATM withdrawal fee: Check how much SBI, PNB, HDFC Bank and ICICI Bank charge</t>
+          <t>SBI to sell distressed loan accounts, including those backed by Anil Ambani, worth ₹96,000 crore: Report | Mint</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Former SBI CFO Charanjit Singh Attra joins Jio Financial Services as COO</t>
+          <t>Abhijit Chakravorty assumes charge as SBI Card’s MD and CEO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SBI Negotiates With Mumbai Metro One Even As Insolvency Looms</t>
+          <t>SBI plans another Rs 10,000 crore infra bond issue</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>05-08-23</t>
+          <t>07-08-23</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Infosys share selloff: SBI pips IT major to become 7th most-valued company on D-Street</t>
+          <t>Nifty Bank outlook: Strong resistance near 50-day EMA at 44,650 level; PNB, SBI shares may do well</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SBI clerk recruitment 2023: Vacancy for 4613 posts, Apply online</t>
+          <t>My 40 Years of Experience with SBI: Blind Man &amp; the Elephant – Part 3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kalinga TV</t>
+          <t>Moneylife</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SBI likely to raise up to Rs 10,000 cr via infra bonds</t>
+          <t>SBI Card Q1 Results: Net profit falls 5% to ₹593 crore, revenue up 26% | Mint</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>20-07-23</t>
+          <t>28-07-23</t>
         </is>
       </c>
     </row>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SBI reports merely 3% employee attrition, much lower than Private peers</t>
+          <t>SBI Life Insurance: Pickup in APE growth ahead; FY24 outlook intact</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Indiainfoline</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3653,17 +3653,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SBI Fixed Deposit (FD) or Post Office term deposit? Where to invest your money? Latest interest rates compared | Mint</t>
+          <t>SBI plans to open 300 branches across country in FY24</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>13-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Market cap of 7 of top-10 most valued firms erode by ₹1 lakh crore; SBI take biggest hit. Details here | Mint</t>
+          <t>Q1 results today: SBI, M&amp;M, IDFC to BHEL — 72 companies to declare Q1 results 2023 | Mint</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>06-08-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3697,17 +3697,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Not SBI, Bank of Baroda, these public sector banks championed MSME loans in FY23</t>
+          <t>YES Bank, Tata Steel, SBI, Infosys, LIC, IRCTC shares: 11 of 15 top retail stock bets disappoint in 2023</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -3719,17 +3719,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Stocks to buy today: SBI, ICICI Bank among top 9 trading ideas for 18 July 2023</t>
+          <t>Former SBI chairman Rajnish Kumar’s annual salary at the bank revealed</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>India Today</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>18-07-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>My 40 Years of Experience with SBI: Blind Man &amp; the Elephant – Part I</t>
+          <t>NCLT defers hearing of SBI's insolvency plea against PC Jeweller to August 29</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Moneylife</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3763,17 +3763,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SBI Foundation's Youth for India Program Welcomes Batch 2023-24 ...</t>
+          <t>Jharkhand Police signs MoU with SBI for salary package</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Telegraph India</t>
+          <t>Devdiscourse</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>10-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SBI Special FD Scheme: Double Your Money By Investing In This ...</t>
+          <t>ReNew gets Rs 2,700-cr project loan from SBI</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20-07-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -3807,17 +3807,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A. Bhuvaneshwari assumes office as CGM, SBI</t>
+          <t>SBI customers face trouble in paying Loan EMI. Bank responds to multiple complaints</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>13-07-23</t>
+          <t>14-08-23</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bajaj Finance, Can Fin Homes, SBI Card &amp; Cholamandalam shares are Jefferies top NBFC picks</t>
+          <t>‘Udyam registration’ by Modi government helped in formalisation of MSMEs on large scale, reveals SBI Research</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>OpIndia</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>19-08-23</t>
         </is>
       </c>
     </row>
@@ -3851,17 +3851,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Stocks to buy today: SBI Life, GAIL, Eicher Motors among top picks</t>
+          <t>SBI Research: Deciphering emerging Trends in ITR Filing ...</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Zee Business</t>
+          <t>StudyCafe</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>23-08-23</t>
         </is>
       </c>
     </row>
@@ -3873,17 +3873,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>M&amp;M, SBI, Delhivery, Britannia and more: Top brokerage calls on Monday</t>
+          <t>Top 10 career options in India’s social sector for youth</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Telegraph India</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -3895,17 +3895,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Technical breakout: SBI, Zydus Wellness, 5 other stocks cross 100-day SMA</t>
+          <t>SBI reports merely 3% employee attrition, much lower than Private peers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3917,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SBI home loan: State Bank of India offers concession, 50-100% processing fee waiver till this date</t>
+          <t>Britannia Q1 Results: Net profit rises to ₹455.5 crore, revenue jumps to ₹4,010 crore YoY | Mint</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>15-07-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3939,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Stocks in news: ICICI Bank, RIL, Balrampur Chini, Delta Corp, SBI and more</t>
+          <t>SBI Clerk Exam Date 2023, Complete Schedule</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Bankersadda</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>19-08-23</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Savings Account customer tells SBI not to force customers to buy insurance, Bank replies</t>
+          <t>Not SBI, Bank of Baroda, these public sector banks championed MSME loans in FY23</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>30-07-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -3983,17 +3983,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SBI Card's Chief People Officer steps down days after MD resigns to transfer back to SBI</t>
+          <t>My 40 Years of Experience with SBI: Blind Man and the Elephant ...</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneylife</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>14-07-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4005,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>RIL, SBI and TCS among 10 Nifty stocks with golden crossover pattern</t>
+          <t>Eicher Motors, Archean Chemical Industries: Here's what Sunny Agrawal of SBI Securities says on these 2 stocks</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>09-08-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -4027,12 +4027,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SBI MD bats for allowing special Vostro surplus in corporate bonds</t>
+          <t>News Updates: SBI Q1 Preview: Profit to double on strong loan growth, treasury gains</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4049,17 +4049,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SBI, Paytm, Eicher Motors Q1 results &amp; more | Market Minutes</t>
+          <t>Savings Account customer tells SBI not to force customers to buy insurance, Bank replies</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Financial Express</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>30-07-23</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Why investors were lukewarm to SBI’s July AT-1 bond issuance</t>
+          <t>SBI Research Backs PM’s ‘Vision 2047’, Per Capita To Touch ₹15 Lakh By 2047</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -4093,17 +4093,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Top gainers, losers today: M&amp;M, Sun Pharma, Tata Motors, SBI among most active stocks | Mint</t>
+          <t>SBI Negotiates With Mumbai Metro One Even As Insolvency Looms</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>BQ Prime</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>05-08-23</t>
         </is>
       </c>
     </row>
@@ -4115,17 +4115,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Story Of `Indomitable Spirit`: How An Average Kolkata Girl Went On To Lead India`s Largest Bank SBI</t>
+          <t>Traders Diary: Buy, sell or hold strategy on SBI Life, Tata Motors, Lemon Tree, Dixon, Tata Power, over a d...</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Zee News</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SBI Is State Instrumentality, Writ Petition Maintainable Even In Disputes Pertaining To Contract For Loan ...</t>
+          <t>Prabhudas slashes Nifty target to 20,735 ahead of polls; lists SBI &amp; Tata Motors as top bets</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Live Law - Indian Legal News</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Rural loans, small biz see stress rising | Mint</t>
+          <t>HC faults SBI bank for wrongly taking possession of property in ...</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Deccan Chronicle</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>04-08-23</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Reliance Industries (RIL), State Bank of India (SBI), HDFC Bank - Most profitable large-cap firms in FY23, PFC, Canara Bank among profitable mid-cap firms, BFSI sector witnesses massive growth: The Point</t>
+          <t>M-cap of 7 of top-10 valued firms erode by Rs 1 trn, SBI biggest laggard</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18-07-23</t>
+          <t>05-08-23</t>
         </is>
       </c>
     </row>
@@ -4203,17 +4203,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Stock Market Today: Sensex, Nifty Extend Losses For A Second Week On Fed Concerns; FPIs Stay Net Sellers</t>
+          <t>Savings account minimum balance requirement: SBI vs PNB vs HDFC Bank vs Canara Bank vs ICICI Bank</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>08-08-23</t>
         </is>
       </c>
     </row>
@@ -4225,17 +4225,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Buy State Bank of India, target price Rs 597: ICICI Direct</t>
+          <t>HDFC Bank, SBI or ICICI Bank: Which bank offers best FD rates? Know here</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>DNA India</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>19-07-23</t>
+          <t>19-08-23</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4247,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
+          <t>SBI Card allows RuPay credit cards on UPI</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Business Standard</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>25-07-23</t>
+          <t>10-08-23</t>
         </is>
       </c>
     </row>
@@ -4269,17 +4269,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SBI Mutual Fund plans with more SIP returns than Quant MF in 10 years</t>
+          <t>SBFC Finance, IRFC, Vodafone Idea, Reliance Power, SBI, Infosys shares see high volumes</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>The Financial Express</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Stocks to buy today: LIC Housing, SBI Life among 8 short-term ...</t>
+          <t>SBI, HDFC Bank &amp; Minda Corporation: Here's what Vinit Bolinjkar of Ventura Securities says on these 3 stocks</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Supreme Court judge, Harish Salve in disagreement over SBI 'takeover' of Yes Bank</t>
+          <t>India likely to become third largest economy by 2027: SBI chief ...</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>India Today</t>
+          <t>ANI News</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>15-07-23</t>
+          <t>15-08-23</t>
         </is>
       </c>
     </row>
@@ -4335,17 +4335,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Brokerages verdict on SBI Q1, Yatharth Hospitals listing &amp; more | Market Minutes</t>
+          <t>PM cites two studies, including SBI report, to laud India's rising prosperity</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Hindustan Times</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4357,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Recurring deposit (RD) interest rates compared: SBI vs HDFC Bank vs ICICI Bank vs Yes Bank vs PNB</t>
+          <t>SBI Life Insurance becomes the first Indian private life insurer to ...</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>PR Newswire</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>31-07-23</t>
+          <t>21-08-23</t>
         </is>
       </c>
     </row>
@@ -4379,17 +4379,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Former State Bank of India chairman Rajnish Kumar reveals annual salary at India's richest public sector bank</t>
+          <t>SBI’s YONO marred by issues and customer complaints</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DNA India</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>31-07-23</t>
+          <t>03-08-23</t>
         </is>
       </c>
     </row>
@@ -4401,17 +4401,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SBI disburses ₹2.08 crore loan to self-help groups at special camp</t>
+          <t>2 top trading recommendations from SBI Sec's Sudeep Shah</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>21-07-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -4423,17 +4423,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>From SBI To Mukesh Ambani’s Reliance, Top 10 Most Profitable Indian Company In The First Quarter Of FY24</t>
+          <t>SBI SCO admit card 2023 released; here’s download link</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Mashable India</t>
+          <t>Scroll.in</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PLI on track; investment commitments at 60% of capex target: SBI MF research</t>
+          <t>Banking sector improved in past 9 years under Modi govt: SBI research finds tripling in net profit, 2x increase in credit and deposit growth</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>The Economic Times</t>
+          <t>OpIndia</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>03-08-23</t>
+          <t>18-08-23</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4467,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SBI’s YONO marred by issues and customer complaints</t>
+          <t>RBI Udgam Portal: Registration, login link and how you can find your unclaimed deposits in SBI, PNB, more b...</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>03-08-23</t>
+          <t>22-08-23</t>
         </is>
       </c>
     </row>
@@ -4489,17 +4489,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SBI launches PMSVANidhi publicity campaign in Hyderabad</t>
+          <t>SBI invites expression of interest for insolvency resolution professionals</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Telangana Today</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -4511,17 +4511,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Memorandum of Compromise Entered by Operational Creditor and ...</t>
+          <t>HDFC Bank overtakes SBI in CRISIL's corporate banking ranking for 2023</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>taxscan.in</t>
+          <t>Business Standard</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>11-08-23</t>
+          <t>25-07-23</t>
         </is>
       </c>
     </row>
@@ -4533,17 +4533,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Stocks To Watch: Adani Transmission, Vedanta, Bank Of India, L&amp;T, SBI, Ramkrishna Forgings, DB Realty, ONGC</t>
+          <t>HDFC Bank Surpasses SBI in CRISIL’s Corporate Banking Ranking for 2023</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BQ Prime</t>
+          <t>Adda247</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>19-07-23</t>
+          <t>29-07-23</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Stock Market Highlights: Sensex, Nifty break 3-day losing streak, SBI ends 3% lower on below-estimate results</t>
+          <t>SBI staring at intense competition post-HDFC Bank merger. But what makes it a forever-value stock?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>04-08-23</t>
+          <t>11-08-23</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Stocks that share market analysts recommended on August 8, 2023: Eicher Motors, Zomato, M&amp;M, and State Bank of India (SBI)</t>
+          <t>SBI Salary Package Account: Free ATM, Insurance &amp; More, Know All Details Here</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>News18</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>16-08-23</t>
         </is>
       </c>
     </row>
@@ -4599,17 +4599,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>State Bank of India Q1 Net Profit seen up 122.8% YoY to Rs. 13,520.8 cr: Nirmal Bang</t>
+          <t>Recurring deposit (RD) interest rates compared: SBI vs HDFC Bank vs ICICI Bank vs Yes Bank vs PNB</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Moneycontrol</t>
+          <t>The Economic Times</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>14-07-23</t>
+          <t>31-07-23</t>
         </is>
       </c>
     </row>
@@ -4621,17 +4621,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Stocks to watch this week: SBI, Berger Paints, ZEEL, ITC, BHEL, Karur Vysya Bank, M&amp;M &amp; Lloyds Metals</t>
+          <t>SBI moves insolvency plea against PC Jeweller over loan default</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Moneycontrol</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>07-08-23</t>
+          <t>26-07-23</t>
         </is>
       </c>
     </row>
@@ -4643,17 +4643,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SBI Q4 results: Net profit jumps 83% YoY to ₹16,695 crore; NII up 29%; announces dividend of ₹11.3 | Mint</t>
+          <t>Traders Diary: Buy, sell or hold strategy on TCS, SBI, PVR-INOX, Lupin, UBL, over a dozen other stocks toda...</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee Business</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>18-05-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -4665,17 +4665,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SBI launches project Kuber</t>
+          <t>Why SBI MF's Ruchit Mehta wants investors to go for hybrid funds</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>CNBCTV18</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>05-06-23</t>
+          <t>17-08-23</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transferred money to the wrong bank account? State Bank of India (SBI) explains how to get it back | Mint</t>
+          <t>Rs 1,000 Crore Business! Son Of A State Bank Of India Employee, This Small Town Boy Turned Out To Be A Culi...</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Zee News</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>24-06-23</t>
+          <t>01-08-23</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SBI outage impacts several customers: Downdetector</t>
+          <t>PSU banks wary of SBI’s dismal AT-1 bond issue, may delay fund-raising</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Times of India</t>
+          <t>BusinessLine</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>13-02-23</t>
+          <t>14-07-23</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>State Bank of India (SBI) raises USD 750 million via bonds | Mint</t>
+          <t>SBI Q4 results: Net profit jumps 83% YoY to ₹16,695 crore; NII up 29%; announces dividend of ₹11.3 | Mint</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>28-04-23</t>
+          <t>18-05-23</t>
         </is>
       </c>
     </row>
@@ -4753,17 +4753,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SBI shares fall for five straight sessions; what’s next?</t>
+          <t>SBI launches project Kuber</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>The Hindu</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>23-06-23</t>
+          <t>05-06-23</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SBI to consider $2 billion fundraising in FY24 via senior unsecured notes, board to meet on 18 Apr | Mint</t>
+          <t>SBI to divest its 2% equity stake in NSDL IPO via OFS | Mint</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>10-04-23</t>
+          <t>10-07-23</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SBI to divest its 2% equity stake in NSDL IPO via OFS | Mint</t>
+          <t>SBI to consider $2 billion fundraising in FY24 via senior unsecured notes, board to meet on 18 Apr | Mint</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10-07-23</t>
+          <t>10-04-23</t>
         </is>
       </c>
     </row>
@@ -4819,17 +4819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Best CEOs: How Dinesh Kumar Khara is taking SBI to new heights</t>
+          <t>SBI outage impacts several customers: Downdetector</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Business Today</t>
+          <t>Times of India</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>27-04-23</t>
+          <t>13-02-23</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SBI share price: Experts give 'buy' tag as bank mulls fund raise. Should you buy? | Mint</t>
+          <t>Transferred money to the wrong bank account? State Bank of India (SBI) explains how to get it back | Mint</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>06-06-23</t>
+          <t>24-06-23</t>
         </is>
       </c>
     </row>
@@ -4863,17 +4863,149 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ATM से पैसे निकालने का क्या है चार्ज?SBI vs PNB vs HDFC Bank vs ICICI Bank</t>
+          <t>SBI shares fall for five straight sessions; what’s next?</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Zee Business हिंदी</t>
+          <t>Business Today</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>08-08-23</t>
+          <t>23-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>State Bank of India (SBI) raises USD 750 million via bonds | Mint</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Mint</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>28-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SBI server down: Why State Bank of India net banking, UPI were down yesterday, bank clarifies</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>The Economic Times</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>04-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SBI Q1 results may surprise investors. BNP Paribas analyst Santanu Chakrabarti explains why</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>The Economic Times</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>21-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Best CEOs: How Dinesh Kumar Khara is taking SBI to new heights</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Business Today</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>27-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>₹2,000 note exchange/ deposit: Know rules for SBI, HDFC, ICICI, other banks | Mint</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Mint</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>27-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SBI</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Loan rates to rise? SBI hikes lending rate by 5 bps across tenures from July 15</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Business Today</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>15-07-23</t>
         </is>
       </c>
     </row>
